--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134741</v>
+        <v>134742</v>
       </c>
       <c r="D17" t="n">
         <v>19602</v>
       </c>
       <c r="E17" t="n">
-        <v>296792831</v>
+        <v>296794586</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>26160</v>
+        <v>26163</v>
       </c>
       <c r="D81" t="n">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="E81" t="n">
-        <v>165058439</v>
+        <v>165085493</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19706</v>
+        <v>19709</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56474296</v>
+        <v>56504296</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5576,13 +5576,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5639</v>
+        <v>5641</v>
       </c>
       <c r="D126" t="n">
         <v>1176</v>
       </c>
       <c r="E126" t="n">
-        <v>8168120</v>
+        <v>8171016</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126043</v>
+        <v>126044</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>715904100</v>
+        <v>715905660</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284968</v>
+        <v>284979</v>
       </c>
       <c r="D168" t="n">
         <v>58122</v>
       </c>
       <c r="E168" t="n">
-        <v>1209511841</v>
+        <v>1209979525</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367330</v>
+        <v>367345</v>
       </c>
       <c r="D170" t="n">
         <v>38110</v>
       </c>
       <c r="E170" t="n">
-        <v>2844871972</v>
+        <v>2845166254</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115134</v>
+        <v>115135</v>
       </c>
       <c r="D171" t="n">
         <v>20264</v>
       </c>
       <c r="E171" t="n">
-        <v>445866840</v>
+        <v>445869720</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357200</v>
+        <v>357207</v>
       </c>
       <c r="D174" t="n">
         <v>69788</v>
       </c>
       <c r="E174" t="n">
-        <v>1017405564</v>
+        <v>1017494052</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125525</v>
+        <v>125530</v>
       </c>
       <c r="D175" t="n">
         <v>18100</v>
       </c>
       <c r="E175" t="n">
-        <v>812319637</v>
+        <v>812358049</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235684</v>
+        <v>235690</v>
       </c>
       <c r="D179" t="n">
-        <v>29335</v>
+        <v>29336</v>
       </c>
       <c r="E179" t="n">
-        <v>812491076</v>
+        <v>812533024</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141467</v>
+        <v>141469</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>340184085</v>
+        <v>340196652</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21933</v>
+        <v>21935</v>
       </c>
       <c r="D186" t="n">
         <v>5228</v>
       </c>
       <c r="E186" t="n">
-        <v>40056540</v>
+        <v>40057160</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13103</v>
+        <v>13104</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>33006180</v>
+        <v>33016552</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11125</v>
+        <v>11126</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>44114295</v>
+        <v>44116847</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -11357,13 +11357,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>84974</v>
+        <v>84975</v>
       </c>
       <c r="D267" t="n">
         <v>20049</v>
       </c>
       <c r="E267" t="n">
-        <v>156518758</v>
+        <v>156519209</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>91333</v>
+        <v>91336</v>
       </c>
       <c r="D295" t="n">
-        <v>9956</v>
+        <v>9957</v>
       </c>
       <c r="E295" t="n">
-        <v>552918351</v>
+        <v>552974072</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
